--- a/ProducerInterfaceControlPanelDomain/Reports/p5/da2c2382-174e-4d21-a393-083cec76bc86.xlsx
+++ b/ProducerInterfaceControlPanelDomain/Reports/p5/da2c2382-174e-4d21-a393-083cec76bc86.xlsx
@@ -355,17 +355,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.2380916050502" customWidth="1"/>
-    <col min="2" max="2" width="18.9992544991629" customWidth="1"/>
+    <col min="1" max="1" width="45.6867501395089" customWidth="1"/>
+    <col min="2" max="2" width="23.0930044991629" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="33.938241141183" customWidth="1"/>
-    <col min="5" max="5" width="12.2827366420201" customWidth="1" style="2"/>
-    <col min="6" max="6" width="18.7499989100865" customWidth="1" style="2"/>
-    <col min="7" max="7" width="14.2306540352958" customWidth="1" style="4"/>
-    <col min="8" max="8" width="11.1711300441197" customWidth="1" style="4"/>
-    <col min="9" max="9" width="14.7083326067243" customWidth="1" style="4"/>
-    <col min="10" max="10" width="19.1785703386579" customWidth="1"/>
-    <col min="11" max="11" width="30.813241141183" customWidth="1"/>
+    <col min="4" max="4" width="41.1904732840402" customWidth="1"/>
+    <col min="5" max="5" width="14.4627968924386" customWidth="1" style="2"/>
+    <col min="6" max="6" width="22.4977656773158" customWidth="1" style="2"/>
+    <col min="7" max="7" width="16.7299096243722" customWidth="1" style="4"/>
+    <col min="8" max="8" width="12.96949332101" customWidth="1" style="4"/>
+    <col min="9" max="9" width="17.4017846243722" customWidth="1" style="4"/>
+    <col min="10" max="10" width="23.016366141183" customWidth="1"/>
+    <col min="11" max="11" width="37.3214263916016" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
